--- a/数据整理/stocks/A股/上证主板/603712-七一二.xlsx
+++ b/数据整理/stocks/A股/上证主板/603712-七一二.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010305</t>
+          <t>001475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏创新驱动混合A</t>
+          <t>易方达国防军工混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50.42</t>
+          <t>84.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.9775</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010306</t>
+          <t>000021</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏创新驱动混合C</t>
+          <t>华夏优势增长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>50.42</t>
+          <t>80.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9514</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>080012</t>
+          <t>010305</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长盛电子信息产业混合</t>
+          <t>华夏创新驱动混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.73</t>
+          <t>61.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>50.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8905</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000021</t>
+          <t>002251</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏优势增长混合</t>
+          <t>华夏军工安全灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>26.47</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8555</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519908</t>
+          <t>002229</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏兴华混合A</t>
+          <t>华夏经济转型股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.84</t>
+          <t>23.28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4853</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>288001</t>
+          <t>006868</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏经典配置混合</t>
+          <t>华夏科技成长股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>71.90</t>
+          <t>14.83</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9892</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001475</t>
+          <t>080012</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达国防军工混合</t>
+          <t>长盛电子信息产业混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>12.90</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9.47</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4089</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006868</t>
+          <t>288001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏科技成长股票</t>
+          <t>华夏经典配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>71.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3746</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>960004</t>
+          <t>519908</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏兴华混合H</t>
+          <t>华夏兴华混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>92.84</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>3.71</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3450</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005128</t>
+          <t>960004</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏永康添福混合</t>
+          <t>华夏兴华混合H</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>29.41</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3450</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -782,15 +892,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>93.71</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>5.15</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2472</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>4</v>
       </c>
     </row>
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002229</t>
+          <t>005671</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏经济转型股票</t>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>88.86</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2084</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -828,25 +958,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002251</t>
+          <t>010306</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华夏军工安全灵活配置混合</t>
+          <t>华夏创新驱动混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.86</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>50.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -856,25 +996,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005671</t>
+          <t>005128</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>新疆前海联合研究优选灵活配置混合A</t>
+          <t>华夏永康添福混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.06</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>29.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>10</v>
       </c>
     </row>
@@ -894,15 +1044,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>92.06</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>4.27</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -917,7 +1077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,15 +1098,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -958,25 +1128,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004250</t>
+          <t>001475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河量化优选混合</t>
+          <t>易方达国防军工混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.01</t>
+          <t>111.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.7876</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>960004</t>
+          <t>002251</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏兴华混合H</t>
+          <t>华夏军工安全灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.82</t>
+          <t>37.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2428</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005186</t>
+          <t>010305</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长安鑫兴灵活配置混合A</t>
+          <t>华夏创新驱动混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>62.73</t>
+          <t>42.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7202</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005187</t>
+          <t>002229</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长安鑫兴灵活配置混合C</t>
+          <t>华夏经济转型股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>62.73</t>
+          <t>16.62</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0255</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>540007</t>
+          <t>006868</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘股票</t>
+          <t>华夏科技成长股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.03</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5221</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>288001</t>
+          <t>519908</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏经典配置混合</t>
+          <t>华夏兴华混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>61.55</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3858</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006593</t>
+          <t>288001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博道中证500指数增强A</t>
+          <t>华夏经典配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>11.54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>61.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3081</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006594</t>
+          <t>010306</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博道中证500指数增强C</t>
+          <t>华夏创新驱动混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010305</t>
+          <t>006593</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏创新驱动混合A</t>
+          <t>博道中证500指数增强A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.19</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010306</t>
+          <t>540007</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏创新驱动混合C</t>
+          <t>汇丰晋信中小盘股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.19</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006868</t>
+          <t>006594</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华夏科技成长股票</t>
+          <t>博道中证500指数增强C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>87.51</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001475</t>
+          <t>005186</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>易方达国防军工混合</t>
+          <t>长安鑫兴灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>62.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1294,25 +1584,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>519908</t>
+          <t>004250</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华夏兴华混合A</t>
+          <t>银河量化优选混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>89.82</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002229</t>
+          <t>005187</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华夏经济转型股票</t>
+          <t>长安鑫兴灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
+          <t>62.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1350,26 +1660,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002251</t>
+          <t>960004</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华夏军工安全灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>94.96</t>
-        </is>
-      </c>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>8.62</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603712-七一二.xlsx
+++ b/数据整理/stocks/A股/上证主板/603712-七一二.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1668,7 +1669,6 @@
           <t>华夏兴华混合H</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>89.82</t>
@@ -1684,6 +1684,972 @@
       </c>
       <c r="H16" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.7598</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1797</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8653</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5468</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5658</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2350</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1167</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>60.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>39.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7801</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6348</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4757</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4147</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4138</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2555</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2554</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2061</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>54.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>53.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603712-七一二.xlsx
+++ b/数据整理/stocks/A股/上证主板/603712-七一二.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2655,4 +2656,970 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>171.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.2187</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.8636</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8124</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7129</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5379</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4461</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2460</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1592</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5876</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4696</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4606</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4297</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2555</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>60.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603712-七一二.xlsx
+++ b/数据整理/stocks/A股/上证主板/603712-七一二.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3622,4 +3623,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603712-七一二.xlsx
+++ b/数据整理/stocks/A股/上证主板/603712-七一二.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3631,7 +3632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3642,17 +3643,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3662,14 +3683,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.45</v>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>200.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.1515</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3678,14 +3721,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.01</v>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.7256</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3694,14 +3759,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.25</v>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>71.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3630</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3710,13 +3797,1063 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1094</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1881</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7016</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>109.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4690</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2326</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012130</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9434</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6615</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6332</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5971</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5454</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5310</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5274</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4565</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2351</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012131</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004144</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根安丰回报混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>50.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004145</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根安丰回报混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>15</v>
       </c>
       <c r="D5" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
         <v>18.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603712-七一二.xlsx
+++ b/数据整理/stocks/A股/上证主板/603712-七一二.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4752,7 +4753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4763,17 +4764,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4783,14 +4804,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>38.6</v>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>180.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.8612</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4799,14 +4842,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>32.45</v>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.1671</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4815,14 +4880,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.01</v>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7705</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4831,14 +4918,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.25</v>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5161</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -4847,13 +4956,1345 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9950</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8876</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3405</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0598</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8366</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8366</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6210</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4899</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4833</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4150</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013091</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2355</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2027</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1894</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>33.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>48.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013899</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013092</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>66.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>38.91</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013900</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>15</v>
       </c>
       <c r="D6" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
         <v>18.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603712-七一二.xlsx
+++ b/数据整理/stocks/A股/上证主板/603712-七一二.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6177,7 +6178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6188,17 +6189,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6208,14 +6229,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33.68</v>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>179.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.7676</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -6224,14 +6267,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>38.6</v>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7508</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -6240,14 +6305,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32.45</v>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6304</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6256,14 +6343,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>24</v>
-      </c>
-      <c r="D5" t="n">
-        <v>30.01</v>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3005</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -6272,14 +6381,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>15</v>
-      </c>
-      <c r="D6" t="n">
-        <v>16.25</v>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9669</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -6288,13 +6419,981 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3095</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9942</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8851</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>35.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8664</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8178</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6428</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>44.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4500</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4480</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4480</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3585</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3496</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011592</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时军工主题股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3341</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013566</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>15</v>
       </c>
       <c r="D7" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
         <v>18.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603712-七一二.xlsx
+++ b/数据整理/stocks/A股/上证主板/603712-七一二.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D2" t="n">
-        <v>26.78</v>
+        <v>24.39</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>33.68</v>
+        <v>26.78</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>38.6</v>
+        <v>33.68</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>32.45</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>30.01</v>
+        <v>32.45</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>16.25</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>15</v>
       </c>
       <c r="D8" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
         <v>18.26</v>
       </c>
     </row>
@@ -600,6 +617,2000 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>164.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3363</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6876</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6296</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6044</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4742</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银互联网加股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4620</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2643</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9603</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8546</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8348</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7743</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5034</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4635</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4184</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4169</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015945</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4158</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4129</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4040</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2833</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2232</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2213</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014299</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰达宏利先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>77.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014300</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰达宏利先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013122</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1681,7 +3692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3105,7 +5116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4218,972 +6229,6 @@
       </c>
       <c r="H29" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001475</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达国防军工混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>171.13</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>12.2187</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010680</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏新兴成长股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>72.70</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>82.58</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.8636</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002251</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏军工安全灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>46.55</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.8124</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010305</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏创新驱动混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>36.76</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.36</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.7129</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>110005</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达积极成长混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>28.80</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.5379</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003961</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达瑞程灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>37.27</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.4461</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001182</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达安心回馈混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>87.13</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>39.41</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.2460</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002229</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏经济转型股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>13.95</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>84.08</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.1592</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006868</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华夏科技成长股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.97</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>85.86</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.5876</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010681</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华夏新兴成长股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>82.58</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4696</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160642</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>65.10</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.4606</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>519908</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华夏兴华混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>10.28</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.68</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.4297</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003962</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>易方达瑞程灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>10.33</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.4008</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>000690</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>前海开源大海洋战略经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2899</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004640</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华夏节能环保股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2555</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010306</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华夏创新驱动混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>84.36</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2148</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003839</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>易方达瑞通灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>11.56</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>27.83</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1433</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>000866</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华宝高端制造股票</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>83.51</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0800</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005409</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华泰柏瑞战略新兴产业混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>79.95</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0663</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003840</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>易方达瑞通灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>27.83</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0337</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004284</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华宝新优选一年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>60.79</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009317</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>金信核心竞争力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>84.07</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>010032</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华泰柏瑞战略新兴产业混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>79.95</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>960004</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华夏兴华混合H</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>91.68</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5258,22 +6303,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>142.89</t>
+          <t>171.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.84</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11.7598</t>
+          <t>12.2187</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -5296,26 +6341,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>83.26</t>
+          <t>72.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.49</t>
+          <t>82.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.1797</t>
+          <t>4.8636</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -5334,22 +6379,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>49.81</t>
+          <t>46.55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>8.19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.8653</t>
+          <t>3.8124</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -5372,26 +6417,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44.37</t>
+          <t>36.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.98</t>
+          <t>84.36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>7.38</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.5468</t>
+          <t>2.7129</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -5410,26 +6455,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23.06</t>
+          <t>28.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.5658</t>
+          <t>1.5379</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -5448,26 +6493,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>37.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.2350</t>
+          <t>1.4461</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -5476,36 +6521,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002229</t>
+          <t>001182</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏经济转型股票</t>
+          <t>易方达安心回馈混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18.07</t>
+          <t>87.13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>81.71</t>
+          <t>39.41</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.1167</t>
+          <t>1.2460</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -5514,36 +6559,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001182</t>
+          <t>002229</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达安心回馈混合</t>
+          <t>华夏经济转型股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>60.47</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>39.21</t>
+          <t>84.08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.7801</t>
+          <t>1.1592</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -5562,26 +6607,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.78</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>88.08</t>
+          <t>85.86</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.6348</t>
+          <t>0.5876</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -5590,36 +6635,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519918</t>
+          <t>010681</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏兴和混合</t>
+          <t>华夏新兴成长股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>82.58</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.4757</t>
+          <t>0.4696</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -5628,36 +6673,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010681</t>
+          <t>160642</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华夏新兴成长股票C</t>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.26</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>81.49</t>
+          <t>65.10</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.4147</t>
+          <t>0.4606</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -5676,22 +6721,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9.32</t>
+          <t>10.28</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>91.68</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.4138</t>
+          <t>0.4297</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -5704,32 +6749,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004640</t>
+          <t>003962</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华夏节能环保股票</t>
+          <t>易方达瑞程灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.2555</t>
+          <t>0.4008</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -5742,36 +6787,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>003962</t>
+          <t>000690</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达瑞程灵活配置混合C</t>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.2554</t>
+          <t>0.2899</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -5780,36 +6825,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010306</t>
+          <t>004640</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华夏创新驱动混合C</t>
+          <t>华夏节能环保股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>87.98</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.2061</t>
+          <t>0.2555</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -5818,36 +6863,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005409</t>
+          <t>010306</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华泰柏瑞战略新兴产业混合A</t>
+          <t>华夏创新驱动混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>88.11</t>
+          <t>84.36</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>7.38</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0877</t>
+          <t>0.2148</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -5856,32 +6901,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>000866</t>
+          <t>003839</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华宝高端制造股票</t>
+          <t>易方达瑞通灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>11.56</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>27.83</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0787</t>
+          <t>0.1433</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -5894,32 +6939,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010060</t>
+          <t>000866</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华泰柏瑞景利混合A</t>
+          <t>华宝高端制造股票</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>22.66</t>
+          <t>83.51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0539</t>
+          <t>0.0800</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -5932,36 +6977,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001060</t>
+          <t>005409</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>前海开源高端装备制造灵活配置混合</t>
+          <t>华泰柏瑞战略新兴产业混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>54.40</t>
+          <t>79.95</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0412</t>
+          <t>0.0663</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -5970,36 +7015,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001967</t>
+          <t>003840</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华宝转型升级灵活配置混合</t>
+          <t>易方达瑞通灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92.56</t>
+          <t>27.83</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0182</t>
+          <t>0.0337</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -6018,26 +7063,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>53.81</t>
+          <t>60.79</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0181</t>
+          <t>0.0184</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -6046,32 +7091,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010061</t>
+          <t>009317</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华泰柏瑞景利混合C</t>
+          <t>金信核心竞争力灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>22.66</t>
+          <t>84.07</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.0030</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -6094,26 +7139,26 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>88.11</t>
+          <t>79.95</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -6137,12 +7182,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>91.68</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -6158,6 +7203,972 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.7598</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1797</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8653</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5468</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5658</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2350</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1167</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>60.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>39.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7801</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6348</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4757</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4147</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4138</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2555</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2554</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2061</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>54.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>53.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6776,7 +8787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603712-七一二.xlsx
+++ b/数据整理/stocks/A股/上证主板/603712-七一二.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D2" t="n">
-        <v>24.39</v>
+        <v>26.66</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>26.78</v>
+        <v>24.39</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>33.68</v>
+        <v>26.78</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>38.6</v>
+        <v>33.68</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>32.45</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>30.01</v>
+        <v>32.45</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>16.25</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>15</v>
       </c>
       <c r="D9" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>15</v>
+      </c>
+      <c r="D10" t="n">
         <v>18.26</v>
       </c>
     </row>
@@ -616,7 +633,3119 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.9775</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9514</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>50.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8905</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8555</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4853</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9892</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4089</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3746</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3450</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3450</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2472</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2084</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>50.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>144.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0589</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0682</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银互联网加股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7594</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5698</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4873</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3821</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2574</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1238</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9859</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银养老产业股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8469</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015945</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8400</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6992</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5247</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4941</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4870</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4562</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4488</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4118</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3913</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012844</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信恒兴6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2850</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>75.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2823</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2608</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2592</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2538</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>017289</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2097</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012238</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银养老产业股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>68.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012828</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国浦诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011903</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方领航优选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012845</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信恒兴6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>75.35</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014299</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰达宏利先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011904</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方领航优选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012829</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国浦诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012287</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东海启航6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012495</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>民生加银双核动力混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014300</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰达宏利先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014381</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013377</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东海启航6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>016594</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2610,7 +5739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3692,7 +6821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5116,7 +8245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6229,972 +9358,6 @@
       </c>
       <c r="H29" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001475</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达国防军工混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>171.13</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>12.2187</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010680</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏新兴成长股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>72.70</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>82.58</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.8636</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002251</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏军工安全灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>46.55</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.8124</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010305</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏创新驱动混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>36.76</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.36</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.7129</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>110005</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达积极成长混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>28.80</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.5379</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003961</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达瑞程灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>37.27</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.4461</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001182</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达安心回馈混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>87.13</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>39.41</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.2460</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002229</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏经济转型股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>13.95</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>84.08</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.1592</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006868</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华夏科技成长股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.97</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>85.86</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.5876</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010681</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华夏新兴成长股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>82.58</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4696</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160642</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>65.10</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.4606</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>519908</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华夏兴华混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>10.28</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.68</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.4297</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003962</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>易方达瑞程灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>10.33</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.4008</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>000690</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>前海开源大海洋战略经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2899</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004640</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华夏节能环保股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2555</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010306</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华夏创新驱动混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>84.36</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2148</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003839</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>易方达瑞通灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>11.56</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>27.83</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1433</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>000866</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华宝高端制造股票</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>83.51</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0800</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005409</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华泰柏瑞战略新兴产业混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>79.95</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0663</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003840</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>易方达瑞通灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>27.83</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0337</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004284</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华宝新优选一年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>60.79</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009317</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>金信核心竞争力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>84.07</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>010032</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华泰柏瑞战略新兴产业混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>79.95</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>960004</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华夏兴华混合H</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>91.68</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -7269,22 +9432,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>142.89</t>
+          <t>171.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.84</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11.7598</t>
+          <t>12.2187</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -7307,26 +9470,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>83.26</t>
+          <t>72.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.49</t>
+          <t>82.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.1797</t>
+          <t>4.8636</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -7345,22 +9508,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>49.81</t>
+          <t>46.55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>8.19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.8653</t>
+          <t>3.8124</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -7383,26 +9546,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44.37</t>
+          <t>36.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.98</t>
+          <t>84.36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>7.38</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.5468</t>
+          <t>2.7129</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -7421,26 +9584,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23.06</t>
+          <t>28.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.5658</t>
+          <t>1.5379</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -7459,26 +9622,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>37.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.2350</t>
+          <t>1.4461</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -7487,36 +9650,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002229</t>
+          <t>001182</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏经济转型股票</t>
+          <t>易方达安心回馈混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18.07</t>
+          <t>87.13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>81.71</t>
+          <t>39.41</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.1167</t>
+          <t>1.2460</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -7525,36 +9688,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001182</t>
+          <t>002229</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达安心回馈混合</t>
+          <t>华夏经济转型股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>60.47</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>39.21</t>
+          <t>84.08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.7801</t>
+          <t>1.1592</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -7573,26 +9736,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.78</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>88.08</t>
+          <t>85.86</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.6348</t>
+          <t>0.5876</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -7601,36 +9764,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519918</t>
+          <t>010681</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏兴和混合</t>
+          <t>华夏新兴成长股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>82.58</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.4757</t>
+          <t>0.4696</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -7639,36 +9802,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010681</t>
+          <t>160642</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华夏新兴成长股票C</t>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.26</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>81.49</t>
+          <t>65.10</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.4147</t>
+          <t>0.4606</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -7687,22 +9850,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9.32</t>
+          <t>10.28</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>91.68</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.4138</t>
+          <t>0.4297</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -7715,32 +9878,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004640</t>
+          <t>003962</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华夏节能环保股票</t>
+          <t>易方达瑞程灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.2555</t>
+          <t>0.4008</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -7753,36 +9916,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>003962</t>
+          <t>000690</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达瑞程灵活配置混合C</t>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.2554</t>
+          <t>0.2899</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -7791,36 +9954,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010306</t>
+          <t>004640</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华夏创新驱动混合C</t>
+          <t>华夏节能环保股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>87.98</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.2061</t>
+          <t>0.2555</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -7829,36 +9992,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005409</t>
+          <t>010306</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华泰柏瑞战略新兴产业混合A</t>
+          <t>华夏创新驱动混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>88.11</t>
+          <t>84.36</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>7.38</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0877</t>
+          <t>0.2148</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -7867,32 +10030,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>000866</t>
+          <t>003839</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华宝高端制造股票</t>
+          <t>易方达瑞通灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>11.56</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>27.83</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0787</t>
+          <t>0.1433</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -7905,32 +10068,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010060</t>
+          <t>000866</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华泰柏瑞景利混合A</t>
+          <t>华宝高端制造股票</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>22.66</t>
+          <t>83.51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0539</t>
+          <t>0.0800</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -7943,36 +10106,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001060</t>
+          <t>005409</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>前海开源高端装备制造灵活配置混合</t>
+          <t>华泰柏瑞战略新兴产业混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>54.40</t>
+          <t>79.95</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0412</t>
+          <t>0.0663</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -7981,36 +10144,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001967</t>
+          <t>003840</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华宝转型升级灵活配置混合</t>
+          <t>易方达瑞通灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92.56</t>
+          <t>27.83</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0182</t>
+          <t>0.0337</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -8029,26 +10192,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>53.81</t>
+          <t>60.79</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0181</t>
+          <t>0.0184</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -8057,32 +10220,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010061</t>
+          <t>009317</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华泰柏瑞景利混合C</t>
+          <t>金信核心竞争力灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>22.66</t>
+          <t>84.07</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.0030</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -8105,26 +10268,26 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>88.11</t>
+          <t>79.95</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -8148,12 +10311,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>91.68</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -8169,6 +10332,972 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.7598</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1797</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8653</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5468</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5658</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2350</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1167</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>60.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>39.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7801</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6348</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4757</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4147</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4138</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2555</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2554</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2061</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>54.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>53.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8785,630 +11914,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001475</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达国防军工混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>84.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.47</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>7.9775</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000021</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏优势增长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>80.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.9514</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010305</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏创新驱动混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>61.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>50.42</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.8905</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002251</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏军工安全灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>26.47</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.86</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.8555</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002229</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华夏经济转型股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>23.28</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.86</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.4853</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006868</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏科技成长股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>14.83</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.34</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.9892</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>080012</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长盛电子信息产业混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.73</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4089</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>288001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏经典配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.68</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>71.90</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3746</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>519908</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华夏兴华混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3450</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>960004</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华夏兴华混合H</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3450</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001924</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华夏国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2472</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005671</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>新疆前海联合研究优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.06</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2084</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010306</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华夏创新驱动混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>50.42</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1066</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005128</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华夏永康添福混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>29.41</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0561</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005672</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>新疆前海联合研究优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.06</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>